--- a/trunk/BaoCaoNhom/CrazyLib_Plan_new.xlsx
+++ b/trunk/BaoCaoNhom/CrazyLib_Plan_new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -2521,12 +2521,14 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="65.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>

--- a/trunk/BaoCaoNhom/CrazyLib_Plan_new.xlsx
+++ b/trunk/BaoCaoNhom/CrazyLib_Plan_new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Task_Table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -95,16 +95,22 @@
     <t>4</t>
   </si>
   <si>
+    <t>Viết description: Log in/log out, đăng ký thành viên, thông tin thành viên</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Viết description: Tìm kiếm sách, FAQ, Rule, Đăng ký mượn/huỷ mượn</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Viết description: Mail, Lịch sử mượn sách, xem lịch sử mượn sách (thủ thư)</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Viết project plan</t>
@@ -116,7 +122,7 @@
     <t>9/11/12 5:00 PM</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Tìm hiểu Ruby on Rails</t>
@@ -131,7 +137,7 @@
     <t>9/15/12 5:00 PM</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>Hoàn chỉnh Project Description, Project Plan</t>
@@ -143,7 +149,7 @@
     <t>9/21/12 5:00 PM</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>Viết SRS:Phần Project</t>
@@ -155,7 +161,7 @@
     <t>9/20/12 12:00 PM</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>Viết SRS theo description (task 2)</t>
@@ -164,31 +170,31 @@
     <t>9/19/12 8:00 AM</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>Viết SRS theo description (task 3)</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>Viết SRS theo description (task 4)</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Viết SRS theo description (task 5)</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Viết SRS theo description (task 6)</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Hoàn chỉnh SRS</t>
@@ -200,7 +206,7 @@
     <t>9/25/12 5:00 PM</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Bắt đầu viết SDD theo SRS (task 10)</t>
@@ -215,31 +221,31 @@
     <t>9/28/12 5:00 PM</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Bắt đầu viết SDD theo SRS (task 11)</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Bắt đầu viết SDD theo SRS (task 12)</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Bắt đầu viết SDD theo SRS (task 13)</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Bắt đầu viết SDD theo SRS (task 14)</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Manually Scheduled</t>
@@ -257,7 +263,7 @@
     <t>10/5/12 5:00 PM</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Họp nhóm triển khai khởi tạo project</t>
@@ -269,7 +275,7 @@
     <t>10/7/12 5:00 PM</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Implement Đăng ký thành viên, Log in/Log out</t>
@@ -281,31 +287,31 @@
     <t>10/12/12 5:00 PM</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>implement Thêm sách/Xoá sách</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Implenment Tìm kiếm sách</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Implement Xem thông tin Mượn trả sách (admin) theo sách/user/ngày</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Implement Xem thông tin mượn trả sách (user)</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>Test lại hệ thống version 1.0</t>
@@ -317,7 +323,7 @@
     <t>10/16/12 5:00 PM</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>Implement Nhớ password, mất password</t>
@@ -332,31 +338,31 @@
     <t>10/24/12 5:00 PM</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>Implement xem thông tin sách/trả sách</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>Implement Thống kê sách được mượn nhiều/người mượn nhiều/thể loại mượn nhiều</t>
   </si>
   <si>
-    <t>32</t>
+    <t>33</t>
   </si>
   <si>
     <t>Implement Đăng ký mượn sách/huỷ mượn sách</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
   </si>
   <si>
     <t>Implement hệ thống gửi mail</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Test lại hệ thống version 1.1</t>
@@ -368,7 +374,7 @@
     <t>10/26/12 5:00 PM</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Implement xem thông tin thành viên</t>
@@ -380,31 +386,31 @@
     <t>11/5/12 5:00 PM</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Implement Edit Thông tin sách</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Implement biểu đồ thống kê</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>Implement FAQ/Rule</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>Implement đa ngôn ngữ</t>
   </si>
   <si>
-    <t>40</t>
+    <t>41</t>
   </si>
   <si>
     <t>Test lại hệ thống version 1.2</t>
@@ -416,7 +422,7 @@
     <t>11/7/12 5:00 PM</t>
   </si>
   <si>
-    <t>41</t>
+    <t>42</t>
   </si>
   <si>
     <t>Implement ban usern (optional)</t>
@@ -428,31 +434,31 @@
     <t>11/14/12 5:00 PM</t>
   </si>
   <si>
-    <t>42</t>
+    <t>43</t>
   </si>
   <si>
     <t>Implement số sách tối đa có thể mượn (optional)</t>
   </si>
   <si>
-    <t>43</t>
+    <t>44</t>
   </si>
   <si>
     <t>Implement sửa FAQ, Rule cho admin (optional)</t>
   </si>
   <si>
-    <t>44</t>
+    <t>45</t>
   </si>
   <si>
     <t>Implement Phạt quá hạn (optional)</t>
   </si>
   <si>
-    <t>45</t>
+    <t>46</t>
   </si>
   <si>
     <t>Implement sách yêu thích của user (optional)</t>
   </si>
   <si>
-    <t>46</t>
+    <t>47</t>
   </si>
   <si>
     <t>Test lại hệ thống version 1.3, hoàn chỉnh hệ thống</t>
@@ -467,7 +473,7 @@
     <t>11/20/12 5:00 PM</t>
   </si>
   <si>
-    <t>47</t>
+    <t>48</t>
   </si>
   <si>
     <t>Viết báo cáo cuối</t>
@@ -479,7 +485,7 @@
     <t>11/26/12 5:00 PM</t>
   </si>
   <si>
-    <t>48</t>
+    <t>49</t>
   </si>
   <si>
     <t>Báo cáo</t>
@@ -953,17 +959,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,10 +1151,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1156,7 +1162,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1165,16 +1171,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1182,7 +1188,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1191,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1208,7 +1214,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1217,16 +1223,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1234,7 +1240,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1243,16 +1249,16 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1269,16 +1275,16 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1301,10 +1307,10 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1327,10 +1333,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1353,10 +1359,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1379,10 +1385,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1399,16 +1405,16 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1425,16 +1431,16 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1454,13 +1460,13 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1480,13 +1486,13 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1506,13 +1512,13 @@
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1546,25 +1552,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>81</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1572,25 +1578,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1598,25 +1604,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
         <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" t="s">
-        <v>85</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1728,25 +1734,25 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" t="s">
-        <v>102</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1754,25 +1760,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" t="s">
-        <v>102</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -1884,25 +1890,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
         <v>115</v>
       </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>116</v>
-      </c>
-      <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" t="s">
-        <v>118</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -1910,25 +1916,25 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
         <v>119</v>
       </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
         <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" t="s">
-        <v>118</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
         <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
         <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I41" t="s">
         <v>10</v>
@@ -2040,25 +2046,25 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
         <v>131</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>132</v>
-      </c>
-      <c r="E42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" t="s">
-        <v>134</v>
       </c>
       <c r="I42" t="s">
         <v>10</v>
@@ -2066,25 +2072,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
         <v>135</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" t="s">
-        <v>134</v>
       </c>
       <c r="I43" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I44" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
         <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I46" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
         <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s">
         <v>10</v>
@@ -2196,25 +2202,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>149</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" t="s">
-        <v>151</v>
       </c>
       <c r="I48" t="s">
         <v>10</v>
@@ -2222,27 +2228,53 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" t="s">
         <v>152</v>
       </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>153</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" t="s">
-        <v>155</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2255,15 +2287,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2274,31 +2306,31 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -2309,25 +2341,25 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2335,25 +2367,25 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" t="s">
-        <v>170</v>
-      </c>
       <c r="K3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2361,22 +2393,22 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,25 +2416,25 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
-        <v>173</v>
-      </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2410,25 +2442,25 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,79 +2468,79 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
         <v>181</v>
       </c>
-      <c r="C8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
       <c r="J8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
         <v>182</v>
       </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" t="s">
-        <v>180</v>
-      </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2518,37 +2550,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,16 +2585,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,16 +2602,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,16 +2619,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,16 +2636,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,16 +2653,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,16 +2670,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,16 +2687,16 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,16 +2704,16 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,16 +2721,16 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,237 +2738,237 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>192</v>
       </c>
-      <c r="D22" t="s">
-        <v>190</v>
-      </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,16 +2976,16 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,16 +2993,16 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,16 +3010,16 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,118 +3027,118 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,16 +3146,16 @@
         <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3134,16 +3163,16 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,220 +3180,220 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,16 +3401,16 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,16 +3418,16 @@
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,16 +3435,16 @@
         <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,118 +3452,118 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3542,16 +3571,16 @@
         <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,16 +3588,16 @@
         <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3576,16 +3605,16 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3593,118 +3622,118 @@
         <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3712,16 +3741,16 @@
         <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,16 +3758,16 @@
         <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,16 +3775,16 @@
         <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,118 +3792,118 @@
         <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,16 +3911,16 @@
         <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,16 +3928,16 @@
         <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,16 +3945,16 @@
         <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,254 +3962,271 @@
         <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D83" t="s">
         <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
